--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/VIRGINIA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/VIRGINIA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D953"/>
+  <dimension ref="A1:D947"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DE LOS ROMO</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C4">
@@ -426,12 +426,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C5">
@@ -444,7 +444,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C6">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLAYAS DE ROSARITO</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C7">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAN QUINTÍN</t>
+          <t>San Quintín</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C9">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C10">
@@ -509,12 +509,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>CANDELARIA</t>
+          <t>Candelaria</t>
         </is>
       </c>
       <c r="C12">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C13">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16">
@@ -592,12 +592,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>AMATÁN</t>
+          <t>Amatán</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C21">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>BEJUCAL DE OCAMPO</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>BELLA VISTA</t>
+          <t>Bella Vista</t>
         </is>
       </c>
       <c r="C23">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>BENEMÉRITO DE LAS AMÉRICAS</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C24">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOCHIL</t>
+          <t>Bochil</t>
         </is>
       </c>
       <c r="C25">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C26">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C27">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHENALHÓ</t>
+          <t>Chenalhó</t>
         </is>
       </c>
       <c r="C28">
@@ -753,7 +753,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C29">
@@ -766,7 +766,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHILÓN</t>
+          <t>Chilón</t>
         </is>
       </c>
       <c r="C30">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C31">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -805,7 +805,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>COPAINALÁ</t>
+          <t>Copainalá</t>
         </is>
       </c>
       <c r="C33">
@@ -818,7 +818,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>EL BOSQUE</t>
+          <t>El Bosque</t>
         </is>
       </c>
       <c r="C34">
@@ -831,7 +831,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C35">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C36">
@@ -857,7 +857,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C37">
@@ -870,7 +870,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRONTERA HIDALGO</t>
+          <t>Frontera Hidalgo</t>
         </is>
       </c>
       <c r="C38">
@@ -883,7 +883,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C39">
@@ -896,7 +896,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C40">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>IXHUATÁN</t>
+          <t>Ixhuatán</t>
         </is>
       </c>
       <c r="C41">
@@ -922,7 +922,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>IXTACOMITÁN</t>
+          <t>Ixtacomitán</t>
         </is>
       </c>
       <c r="C42">
@@ -935,7 +935,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>JIQUIPILAS</t>
+          <t>Jiquipilas</t>
         </is>
       </c>
       <c r="C43">
@@ -948,7 +948,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>JITOTOL</t>
+          <t>Jitotol</t>
         </is>
       </c>
       <c r="C44">
@@ -961,7 +961,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C45">
@@ -974,7 +974,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C46">
@@ -987,7 +987,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>LA GRANDEZA</t>
+          <t>La Grandeza</t>
         </is>
       </c>
       <c r="C47">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>LA INDEPENDENCIA</t>
+          <t>La Independencia</t>
         </is>
       </c>
       <c r="C48">
@@ -1013,7 +1013,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C49">
@@ -1026,7 +1026,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>LARRÁINZAR</t>
+          <t>Larráinzar</t>
         </is>
       </c>
       <c r="C50">
@@ -1039,7 +1039,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C51">
@@ -1052,7 +1052,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C52">
@@ -1065,7 +1065,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>MARQUÉS DE COMILLAS</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C53">
@@ -1078,7 +1078,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C54">
@@ -1091,7 +1091,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAZATÁN</t>
+          <t>Mazatán</t>
         </is>
       </c>
       <c r="C55">
@@ -1104,7 +1104,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C56">
@@ -1117,7 +1117,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C57">
@@ -1130,7 +1130,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>OCOZOCOAUTLA DE ESPINOSA</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C58">
@@ -1143,7 +1143,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>OXCHUC</t>
+          <t>Oxchuc</t>
         </is>
       </c>
       <c r="C59">
@@ -1156,7 +1156,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C60">
@@ -1169,7 +1169,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C61">
@@ -1182,7 +1182,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C62">
@@ -1195,7 +1195,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>PICHUCALCO</t>
+          <t>Pichucalco</t>
         </is>
       </c>
       <c r="C63">
@@ -1208,7 +1208,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C64">
@@ -1221,7 +1221,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C65">
@@ -1234,7 +1234,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C66">
@@ -1247,7 +1247,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C67">
@@ -1260,7 +1260,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C68">
@@ -1273,7 +1273,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>SOCOLTENANGO</t>
+          <t>Socoltenango</t>
         </is>
       </c>
       <c r="C69">
@@ -1286,7 +1286,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>SUCHIAPA</t>
+          <t>Suchiapa</t>
         </is>
       </c>
       <c r="C70">
@@ -1299,7 +1299,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C71">
@@ -1312,7 +1312,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C72">
@@ -1325,7 +1325,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>TAPALAPA</t>
+          <t>Tapalapa</t>
         </is>
       </c>
       <c r="C73">
@@ -1338,7 +1338,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>TAPILULA</t>
+          <t>Tapilula</t>
         </is>
       </c>
       <c r="C74">
@@ -1351,7 +1351,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C75">
@@ -1364,7 +1364,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>TENEJAPA</t>
+          <t>Tenejapa</t>
         </is>
       </c>
       <c r="C76">
@@ -1377,7 +1377,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C77">
@@ -1390,7 +1390,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>TILA</t>
+          <t>Tila</t>
         </is>
       </c>
       <c r="C78">
@@ -1403,7 +1403,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C79">
@@ -1416,7 +1416,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C80">
@@ -1429,7 +1429,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C81">
@@ -1442,7 +1442,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C82">
@@ -1455,7 +1455,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>TZIMOL</t>
+          <t>Tzimol</t>
         </is>
       </c>
       <c r="C83">
@@ -1468,7 +1468,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C84">
@@ -1481,7 +1481,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C85">
@@ -1494,7 +1494,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C86">
@@ -1507,7 +1507,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C87">
@@ -1520,7 +1520,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C88">
@@ -1533,12 +1533,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C89">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>BALLEZA</t>
+          <t>Balleza</t>
         </is>
       </c>
       <c r="C90">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>CASAS GRANDES</t>
+          <t>Casas Grandes</t>
         </is>
       </c>
       <c r="C91">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C92">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C93">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C94">
@@ -1616,7 +1616,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>EL TULE</t>
+          <t>El Tule</t>
         </is>
       </c>
       <c r="C95">
@@ -1629,7 +1629,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>GUADALUPE Y CALVO</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C96">
@@ -1642,7 +1642,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C97">
@@ -1655,7 +1655,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>HUEJOTITÁN</t>
+          <t>Huejotitán</t>
         </is>
       </c>
       <c r="C98">
@@ -1668,7 +1668,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C99">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>NONOAVA</t>
+          <t>Nonoava</t>
         </is>
       </c>
       <c r="C100">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C101">
@@ -1707,7 +1707,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL ORO</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C102">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="C103">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>SAUCILLO</t>
+          <t>Saucillo</t>
         </is>
       </c>
       <c r="C104">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TEMÓSACHIC</t>
+          <t>Temósachic</t>
         </is>
       </c>
       <c r="C105">
@@ -1759,7 +1759,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C106">
@@ -1772,12 +1772,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C107">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C109">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C110">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C111">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C112">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C113">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C114">
@@ -1881,7 +1881,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C115">
@@ -1894,7 +1894,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C116">
@@ -1907,7 +1907,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C117">
@@ -1920,7 +1920,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C118">
@@ -1933,7 +1933,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C119">
@@ -1946,7 +1946,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C120">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C121">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C122">
@@ -1985,12 +1985,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>Acuña</t>
         </is>
       </c>
       <c r="C123">
@@ -2003,7 +2003,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRONTERA</t>
+          <t>Frontera</t>
         </is>
       </c>
       <c r="C124">
@@ -2016,7 +2016,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C125">
@@ -2029,7 +2029,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C126">
@@ -2042,7 +2042,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C127">
@@ -2055,7 +2055,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>MÚZQUIZ</t>
+          <t>Múzquiz</t>
         </is>
       </c>
       <c r="C128">
@@ -2068,7 +2068,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>SABINAS</t>
+          <t>Sabinas</t>
         </is>
       </c>
       <c r="C129">
@@ -2081,7 +2081,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C130">
@@ -2094,7 +2094,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C131">
@@ -2107,7 +2107,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C132">
@@ -2120,12 +2120,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C133">
@@ -2138,7 +2138,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C134">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C135">
@@ -2164,7 +2164,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C136">
@@ -2177,12 +2177,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C137">
@@ -2195,7 +2195,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUENCAMÉ</t>
+          <t>Cuencamé</t>
         </is>
       </c>
       <c r="C138">
@@ -2208,7 +2208,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C139">
@@ -2221,7 +2221,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C140">
@@ -2234,7 +2234,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C141">
@@ -2247,7 +2247,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C142">
@@ -2260,7 +2260,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C143">
@@ -2273,7 +2273,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C144">
@@ -2286,7 +2286,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>NAZAS</t>
+          <t>Nazas</t>
         </is>
       </c>
       <c r="C145">
@@ -2299,7 +2299,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>POANAS</t>
+          <t>Poanas</t>
         </is>
       </c>
       <c r="C146">
@@ -2312,7 +2312,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>SAN JUAN DE GUADALUPE</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C147">
@@ -2325,7 +2325,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C148">
@@ -2338,7 +2338,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C149">
@@ -2351,12 +2351,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C151">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C152">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C153">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>CALIMAYA</t>
+          <t>Calimaya</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>CAPULHUAC</t>
+          <t>Capulhuac</t>
         </is>
       </c>
       <c r="C156">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C157">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C158">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C159">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C160">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN IZCALLI</t>
+          <t>Cuautitlán Izcalli</t>
         </is>
       </c>
       <c r="C161">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>DONATO GUERRA</t>
+          <t>Donato Guerra</t>
         </is>
       </c>
       <c r="C162">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C164">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>IXTAPAN DEL ORO</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C165">
@@ -2564,7 +2564,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C166">
@@ -2577,7 +2577,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C167">
@@ -2590,7 +2590,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>JOCOTITLÁN</t>
+          <t>Jocotitlán</t>
         </is>
       </c>
       <c r="C168">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>JOQUICINGO</t>
+          <t>Joquicingo</t>
         </is>
       </c>
       <c r="C169">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C170">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>LUVIANOS</t>
+          <t>Luvianos</t>
         </is>
       </c>
       <c r="C171">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>MALINALCO</t>
+          <t>Malinalco</t>
         </is>
       </c>
       <c r="C172">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C173">
@@ -2668,7 +2668,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C174">
@@ -2681,7 +2681,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C175">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C176">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>OCUILAN</t>
+          <t>Ocuilan</t>
         </is>
       </c>
       <c r="C177">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>OTZOLOAPAN</t>
+          <t>Otzoloapan</t>
         </is>
       </c>
       <c r="C178">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C179">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>SAN SIMÓN DE GUERRERO</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C180">
@@ -2759,7 +2759,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C181">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C182">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C183">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>TEMASCALAPA</t>
+          <t>Temascalapa</t>
         </is>
       </c>
       <c r="C184">
@@ -2811,7 +2811,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C185">
@@ -2824,7 +2824,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C186">
@@ -2837,7 +2837,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>TEMOAYA</t>
+          <t>Temoaya</t>
         </is>
       </c>
       <c r="C187">
@@ -2850,7 +2850,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C188">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C189">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>TIANGUISTENCO</t>
+          <t>Tianguistenco</t>
         </is>
       </c>
       <c r="C190">
@@ -2889,7 +2889,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>TIMILPAN</t>
+          <t>Timilpan</t>
         </is>
       </c>
       <c r="C191">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C192">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C193">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C194">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C195">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C196">
@@ -2967,7 +2967,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C197">
@@ -2980,7 +2980,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>ZACAZONAPAN</t>
+          <t>Zacazonapan</t>
         </is>
       </c>
       <c r="C198">
@@ -2993,7 +2993,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C199">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>ZINACANTEPEC</t>
+          <t>Zinacantepec</t>
         </is>
       </c>
       <c r="C200">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C201">
@@ -3032,12 +3032,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>APASEO EL GRANDE</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
+          <t>Doctor Mora</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C218">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C219">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C220">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C223">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C224">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C226">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C227">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>SANTA CATARINA</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C229">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>SANTIAGO MARAVATÍO</t>
+          <t>Santiago Maravatío</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C236">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,12 +3505,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C238">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C239">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C240">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>ALCOZAUCA DE GUERRERO</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>ATLAMAJALCINGO DEL MONTE</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>COCHOAPA EL GRANDE</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>COPALA</t>
+          <t>Copala</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>CUAUTEPEC</t>
+          <t>Cuautepec</t>
         </is>
       </c>
       <c r="C255">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C256">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C257">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>GENERAL CANUTO A. NERI</t>
+          <t>General Canuto A. Neri</t>
         </is>
       </c>
       <c r="C258">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C259">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>HUAMUXTITLÁN</t>
+          <t>Huamuxtitlán</t>
         </is>
       </c>
       <c r="C260">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C263">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>IXCATEOPAN DE CUAUHTÉMOC</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C264">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C265">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C266">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>Mochitlán</t>
         </is>
       </c>
       <c r="C268">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C271">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C272">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C273">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C274">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C275">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C277">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C278">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>TLACOAPA</t>
+          <t>Tlacoapa</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>TLALCHAPA</t>
+          <t>Tlalchapa</t>
         </is>
       </c>
       <c r="C280">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>TLALIXTAQUILLA DE MALDONADO</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C281">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C282">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C283">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C284">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>XALPATLÁHUAC</t>
+          <t>Xalpatláhuac</t>
         </is>
       </c>
       <c r="C285">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>XOCHIHUEHUETLÁN</t>
+          <t>Xochihuehuetlán</t>
         </is>
       </c>
       <c r="C286">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>XOCHISTLAHUACA</t>
+          <t>Xochistlahuaca</t>
         </is>
       </c>
       <c r="C287">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,12 +4186,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>ACAXOCHITLÁN</t>
+          <t>Acaxochitlán</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>ALFAJAYUCAN</t>
+          <t>Alfajayucan</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>CALNALI</t>
+          <t>Calnali</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>CARDONAL</t>
+          <t>Cardonal</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>CHAPULHUACÁN</t>
+          <t>Chapulhuacán</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>HUASCA DE OCAMPO</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>HUAZALINGO</t>
+          <t>Huazalingo</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>HUICHAPAN</t>
+          <t>Huichapan</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>JACALA DE LEDEZMA</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>MINERAL DEL CHICO</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>NICOLÁS FLORES</t>
+          <t>Nicolás Flores</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>NOPALA DE VILLAGRÁN</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>PACULA</t>
+          <t>Pacula</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN METZQUITITLÁN</t>
+          <t>San Agustín Metzquititlán</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
+          <t>San Bartolo Tutotepec</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>SINGUILUCAN</t>
+          <t>Singuilucan</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>TASQUILLO</t>
+          <t>Tasquillo</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>TECOZAUTLA</t>
+          <t>Tecozautla</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>TENANGO DE DORIA</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>TEPEHUACÁN DE GUERRERO</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>TIANGUISTENGO</t>
+          <t>Tianguistengo</t>
         </is>
       </c>
       <c r="C327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>TLANALAPA</t>
+          <t>Tlanalapa</t>
         </is>
       </c>
       <c r="C328">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>TLANCHINOL</t>
+          <t>Tlanchinol</t>
         </is>
       </c>
       <c r="C329">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>TLAXCOAPAN</t>
+          <t>Tlaxcoapan</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C332">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>YAHUALICA</t>
+          <t>Yahualica</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,12 +4802,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ACATIC</t>
+          <t>Acatic</t>
         </is>
       </c>
       <c r="C337">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>AMATITÁN</t>
+          <t>Amatitán</t>
         </is>
       </c>
       <c r="C338">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C339">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>COLOTLÁN</t>
+          <t>Colotlán</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>HOSTOTIPAQUILLO</t>
+          <t>Hostotipaquillo</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>JILOTLÁN DE LOS DOLORES</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>MAZAMITLA</t>
+          <t>Mazamitla</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LA BARRANCA</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE BOLAÑOS</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>SAYULA</t>
+          <t>Sayula</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>TONAYA</t>
+          <t>Tonaya</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>TOTOTLÁN</t>
+          <t>Tototlán</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C366">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C368">
@@ -5223,12 +5223,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C369">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>ARTEAGA</t>
+          <t>Arteaga</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C372">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C373">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>CHERÁN</t>
+          <t>Cherán</t>
         </is>
       </c>
       <c r="C374">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>CHILCHOTA</t>
+          <t>Chilchota</t>
         </is>
       </c>
       <c r="C375">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>COENEO</t>
+          <t>Coeneo</t>
         </is>
       </c>
       <c r="C376">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C377">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>COPÁNDARO</t>
+          <t>Copándaro</t>
         </is>
       </c>
       <c r="C378">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>COTIJA</t>
+          <t>Cotija</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>ECUANDUREO</t>
+          <t>Ecuandureo</t>
         </is>
       </c>
       <c r="C380">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C381">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C382">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C383">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>HUIRAMBA</t>
+          <t>Huiramba</t>
         </is>
       </c>
       <c r="C384">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>IRIMBO</t>
+          <t>Irimbo</t>
         </is>
       </c>
       <c r="C385">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C388">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C391">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>QUERÉNDARO</t>
+          <t>Queréndaro</t>
         </is>
       </c>
       <c r="C397">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>SAN LUCAS</t>
+          <t>San Lucas</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>SUSUPUATO</t>
+          <t>Susupuato</t>
         </is>
       </c>
       <c r="C401">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C402">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C403">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>TOCUMBO</t>
+          <t>Tocumbo</t>
         </is>
       </c>
       <c r="C406">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C407">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>TZINTZUNTZAN</t>
+          <t>Tzintzuntzan</t>
         </is>
       </c>
       <c r="C409">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C413">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C414">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C417">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C418">
@@ -5878,12 +5878,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>AMACUZAC</t>
+          <t>Amacuzac</t>
         </is>
       </c>
       <c r="C419">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>ATLATLAHUCAN</t>
+          <t>Atlatlahucan</t>
         </is>
       </c>
       <c r="C420">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C421">
@@ -5922,7 +5922,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>COATLÁN DEL RÍO</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C422">
@@ -5935,7 +5935,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C423">
@@ -5948,7 +5948,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C424">
@@ -5961,7 +5961,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>JIUTEPEC</t>
+          <t>Jiutepec</t>
         </is>
       </c>
       <c r="C425">
@@ -5974,7 +5974,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C426">
@@ -5987,7 +5987,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>MAZATEPEC</t>
+          <t>Mazatepec</t>
         </is>
       </c>
       <c r="C427">
@@ -6000,7 +6000,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>MIACATLÁN</t>
+          <t>Miacatlán</t>
         </is>
       </c>
       <c r="C428">
@@ -6013,7 +6013,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>OCUITUCO</t>
+          <t>Ocuituco</t>
         </is>
       </c>
       <c r="C429">
@@ -6026,7 +6026,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C430">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>TEPOZTLÁN</t>
+          <t>Tepoztlán</t>
         </is>
       </c>
       <c r="C431">
@@ -6052,7 +6052,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>TLALTIZAPÁN DE ZAPATA</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C432">
@@ -6065,7 +6065,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C433">
@@ -6078,7 +6078,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C434">
@@ -6091,7 +6091,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C435">
@@ -6104,7 +6104,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C436">
@@ -6117,7 +6117,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>ZACUALPAN DE AMILPAS</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C437">
@@ -6130,7 +6130,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C438">
@@ -6143,12 +6143,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ACAPONETA</t>
+          <t>Acaponeta</t>
         </is>
       </c>
       <c r="C439">
@@ -6161,7 +6161,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>AMATLÁN DE CAÑAS</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C440">
@@ -6174,7 +6174,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C441">
@@ -6187,7 +6187,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>IXTLÁN DEL RÍO</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C442">
@@ -6200,7 +6200,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C443">
@@ -6213,7 +6213,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>ROSAMORADA</t>
+          <t>Rosamorada</t>
         </is>
       </c>
       <c r="C444">
@@ -6226,7 +6226,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>RUÍZ</t>
+          <t>Ruíz</t>
         </is>
       </c>
       <c r="C445">
@@ -6239,7 +6239,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C446">
@@ -6252,7 +6252,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C447">
@@ -6265,7 +6265,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C448">
@@ -6278,7 +6278,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C449">
@@ -6291,12 +6291,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ARAMBERRI</t>
+          <t>Aramberri</t>
         </is>
       </c>
       <c r="C450">
@@ -6309,7 +6309,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>DOCTOR ARROYO</t>
+          <t>Doctor Arroyo</t>
         </is>
       </c>
       <c r="C451">
@@ -6322,7 +6322,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>GENERAL TERÁN</t>
+          <t>General Terán</t>
         </is>
       </c>
       <c r="C452">
@@ -6335,7 +6335,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C453">
@@ -6348,7 +6348,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>MONTEMORELOS</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C454">
@@ -6361,7 +6361,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C455">
@@ -6374,7 +6374,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C456">
@@ -6387,7 +6387,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>SAN PEDRO GARZA GARCÍA</t>
+          <t>San Pedro Garza García</t>
         </is>
       </c>
       <c r="C457">
@@ -6400,7 +6400,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C458">
@@ -6413,12 +6413,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ACATLÁN DE PÉREZ FIGUEROA</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C459">
@@ -6431,7 +6431,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>ASUNCIÓN IXTALTEPEC</t>
+          <t>Asunción Ixtaltepec</t>
         </is>
       </c>
       <c r="C460">
@@ -6444,7 +6444,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>AYOTZINTEPEC</t>
+          <t>Ayotzintepec</t>
         </is>
       </c>
       <c r="C461">
@@ -6457,7 +6457,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>CHAHUITES</t>
+          <t>Chahuites</t>
         </is>
       </c>
       <c r="C462">
@@ -6470,7 +6470,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>CHALCATONGO DE HIDALGO</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C463">
@@ -6483,7 +6483,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>CIUDAD IXTEPEC</t>
+          <t>Ciudad Ixtepec</t>
         </is>
       </c>
       <c r="C464">
@@ -6496,7 +6496,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>COICOYÁN DE LAS FLORES</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C465">
@@ -6509,7 +6509,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>CONSTANCIA DEL ROSARIO</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C466">
@@ -6522,7 +6522,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C467">
@@ -6535,7 +6535,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C468">
@@ -6548,7 +6548,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C469">
@@ -6561,7 +6561,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C470">
@@ -6574,7 +6574,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>HUAUTLA DE JIMÉNEZ</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C471">
@@ -6587,7 +6587,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>IXTLÁN DE JUÁREZ</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C472">
@@ -6600,7 +6600,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C473">
@@ -6613,7 +6613,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C474">
@@ -6626,7 +6626,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C475">
@@ -6639,7 +6639,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>MONJAS</t>
+          <t>Monjas</t>
         </is>
       </c>
       <c r="C476">
@@ -6652,7 +6652,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>NEJAPA DE MADERO</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C477">
@@ -6665,7 +6665,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C478">
@@ -6678,7 +6678,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C479">
@@ -6691,7 +6691,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>REFORMA DE PINEDA</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C480">
@@ -6704,7 +6704,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C481">
@@ -6717,7 +6717,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CABECERA NUEVA</t>
+          <t>San Andrés Cabecera Nueva</t>
         </is>
       </c>
       <c r="C482">
@@ -6730,7 +6730,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS HUAXPALTEPEC</t>
+          <t>San Andrés Huaxpaltepec</t>
         </is>
       </c>
       <c r="C483">
@@ -6743,7 +6743,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TEOTILÁLPAM</t>
+          <t>San Andrés Teotilálpam</t>
         </is>
       </c>
       <c r="C484">
@@ -6756,7 +6756,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>SAN BALTAZAR LOXICHA</t>
+          <t>San Baltazar Loxicha</t>
         </is>
       </c>
       <c r="C485">
@@ -6769,7 +6769,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>SAN BARTOLO SOYALTEPEC</t>
+          <t>San Bartolo Soyaltepec</t>
         </is>
       </c>
       <c r="C486">
@@ -6782,7 +6782,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>SAN ESTEBAN ATATLAHUCA</t>
+          <t>San Esteban Atatlahuca</t>
         </is>
       </c>
       <c r="C487">
@@ -6795,7 +6795,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>SAN FELIPE JALAPA DE DÍAZ</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C488">
@@ -6808,7 +6808,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>SAN FELIPE USILA</t>
+          <t>San Felipe Usila</t>
         </is>
       </c>
       <c r="C489">
@@ -6821,7 +6821,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL MAR</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C490">
@@ -6834,7 +6834,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO IXHUATÁN</t>
+          <t>San Francisco Ixhuatán</t>
         </is>
       </c>
       <c r="C491">
@@ -6847,7 +6847,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO OZOLOTEPEC</t>
+          <t>San Francisco Ozolotepec</t>
         </is>
       </c>
       <c r="C492">
@@ -6860,7 +6860,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO SOLA</t>
+          <t>San Francisco Sola</t>
         </is>
       </c>
       <c r="C493">
@@ -6873,7 +6873,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>SAN GABRIEL MIXTEPEC</t>
+          <t>San Gabriel Mixtepec</t>
         </is>
       </c>
       <c r="C494">
@@ -6886,7 +6886,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>SAN ILDEFONSO VILLA ALTA</t>
+          <t>San Ildefonso Villa Alta</t>
         </is>
       </c>
       <c r="C495">
@@ -6899,7 +6899,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C496">
@@ -6912,7 +6912,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>SAN JOSÉ LACHIGUIRI</t>
+          <t>San José Lachiguiri</t>
         </is>
       </c>
       <c r="C497">
@@ -6925,7 +6925,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C498">
@@ -6938,7 +6938,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA VALLE NACIONAL</t>
+          <t>San Juan Bautista Valle Nacional</t>
         </is>
       </c>
       <c r="C499">
@@ -6951,7 +6951,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>SAN JUAN COLORADO</t>
+          <t>San Juan Colorado</t>
         </is>
       </c>
       <c r="C500">
@@ -6964,7 +6964,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>SAN JUAN COTZOCÓN</t>
+          <t>San Juan Cotzocón</t>
         </is>
       </c>
       <c r="C501">
@@ -6977,7 +6977,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>SAN JUAN GUICHICOVI</t>
+          <t>San Juan Guichicovi</t>
         </is>
       </c>
       <c r="C502">
@@ -6990,7 +6990,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>SAN JUAN LALANA</t>
+          <t>San Juan Lalana</t>
         </is>
       </c>
       <c r="C503">
@@ -7003,7 +7003,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C504">
@@ -7016,7 +7016,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 08 -</t>
+          <t>San Juan Mixtepec -Dto. 08 -</t>
         </is>
       </c>
       <c r="C505">
@@ -7029,7 +7029,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 26 -</t>
+          <t>San Juan Mixtepec -Dto. 26 -</t>
         </is>
       </c>
       <c r="C506">
@@ -7042,7 +7042,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>SAN JUAN OZOLOTEPEC</t>
+          <t>San Juan Ozolotepec</t>
         </is>
       </c>
       <c r="C507">
@@ -7055,7 +7055,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>SAN JUAN PETLAPA</t>
+          <t>San Juan Petlapa</t>
         </is>
       </c>
       <c r="C508">
@@ -7068,7 +7068,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>SAN JUAN QUIAHIJE</t>
+          <t>San Juan Quiahije</t>
         </is>
       </c>
       <c r="C509">
@@ -7081,7 +7081,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>SAN JUAN TEITA</t>
+          <t>San Juan Teita</t>
         </is>
       </c>
       <c r="C510">
@@ -7094,7 +7094,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>SAN JUAN ÑUMÍ</t>
+          <t>San Juan Ñumí</t>
         </is>
       </c>
       <c r="C511">
@@ -7107,7 +7107,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="C512">
@@ -7120,7 +7120,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>SAN LUCAS OJITLÁN</t>
+          <t>San Lucas Ojitlán</t>
         </is>
       </c>
       <c r="C513">
@@ -7133,7 +7133,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>SAN MARCIAL OZOLOTEPEC</t>
+          <t>San Marcial Ozolotepec</t>
         </is>
       </c>
       <c r="C514">
@@ -7146,7 +7146,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>SAN MARTÍN ZACATEPEC</t>
+          <t>San Martín Zacatepec</t>
         </is>
       </c>
       <c r="C515">
@@ -7159,7 +7159,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>SAN MATEO ETLATONGO</t>
+          <t>San Mateo Etlatongo</t>
         </is>
       </c>
       <c r="C516">
@@ -7172,7 +7172,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>SAN MATEO PEÑASCO</t>
+          <t>San Mateo Peñasco</t>
         </is>
       </c>
       <c r="C517">
@@ -7185,7 +7185,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>SAN MATEO PIÑAS</t>
+          <t>San Mateo Piñas</t>
         </is>
       </c>
       <c r="C518">
@@ -7198,7 +7198,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>SAN MIGUEL COATLÁN</t>
+          <t>San Miguel Coatlán</t>
         </is>
       </c>
       <c r="C519">
@@ -7211,7 +7211,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>SAN MIGUEL PANIXTLAHUACA</t>
+          <t>San Miguel Panixtlahuaca</t>
         </is>
       </c>
       <c r="C520">
@@ -7224,7 +7224,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SOYALTEPEC</t>
+          <t>San Miguel Soyaltepec</t>
         </is>
       </c>
       <c r="C521">
@@ -7237,7 +7237,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>SAN PABLO COATLÁN</t>
+          <t>San Pablo Coatlán</t>
         </is>
       </c>
       <c r="C522">
@@ -7250,7 +7250,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>SAN PABLO HUITZO</t>
+          <t>San Pablo Huitzo</t>
         </is>
       </c>
       <c r="C523">
@@ -7263,7 +7263,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>SAN PABLO HUIXTEPEC</t>
+          <t>San Pablo Huixtepec</t>
         </is>
       </c>
       <c r="C524">
@@ -7276,7 +7276,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>SAN PEDRO ATOYAC</t>
+          <t>San Pedro Atoyac</t>
         </is>
       </c>
       <c r="C525">
@@ -7289,7 +7289,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>SAN PEDRO IXCATLÁN</t>
+          <t>San Pedro Ixcatlán</t>
         </is>
       </c>
       <c r="C526">
@@ -7302,7 +7302,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>SAN PEDRO JICAYÁN</t>
+          <t>San Pedro Jicayán</t>
         </is>
       </c>
       <c r="C527">
@@ -7315,7 +7315,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C528">
@@ -7328,7 +7328,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>SAN PEDRO MOLINOS</t>
+          <t>San Pedro Molinos</t>
         </is>
       </c>
       <c r="C529">
@@ -7341,7 +7341,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>SAN PEDRO MÁRTIR</t>
+          <t>San Pedro Mártir</t>
         </is>
       </c>
       <c r="C530">
@@ -7354,7 +7354,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>SAN PEDRO NOPALA</t>
+          <t>San Pedro Nopala</t>
         </is>
       </c>
       <c r="C531">
@@ -7367,7 +7367,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C532">
@@ -7380,7 +7380,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>SAN PEDRO QUIATONI</t>
+          <t>San Pedro Quiatoni</t>
         </is>
       </c>
       <c r="C533">
@@ -7393,7 +7393,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO AYUTLA</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C534">
@@ -7406,7 +7406,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN RÍO HONDO</t>
+          <t>San Sebastián Río Hondo</t>
         </is>
       </c>
       <c r="C535">
@@ -7419,7 +7419,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>SAN VICENTE COATLÁN</t>
+          <t>San Vicente Coatlán</t>
         </is>
       </c>
       <c r="C536">
@@ -7432,7 +7432,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="C537">
@@ -7445,7 +7445,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>SANTA ANA TAVELA</t>
+          <t>Santa Ana Tavela</t>
         </is>
       </c>
       <c r="C538">
@@ -7458,7 +7458,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C539">
@@ -7471,7 +7471,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>SANTA CATARINA QUIANÉ</t>
+          <t>Santa Catarina Quiané</t>
         </is>
       </c>
       <c r="C540">
@@ -7484,7 +7484,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>SANTA CATARINA YOSONOTÚ</t>
+          <t>Santa Catarina Yosonotú</t>
         </is>
       </c>
       <c r="C541">
@@ -7497,7 +7497,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ITUNDUJIA</t>
+          <t>Santa Cruz Itundujia</t>
         </is>
       </c>
       <c r="C542">
@@ -7510,7 +7510,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>SANTA CRUZ NUNDACO</t>
+          <t>Santa Cruz Nundaco</t>
         </is>
       </c>
       <c r="C543">
@@ -7523,7 +7523,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ZENZONTEPEC</t>
+          <t>Santa Cruz Zenzontepec</t>
         </is>
       </c>
       <c r="C544">
@@ -7536,7 +7536,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>SANTA LUCÍA MONTEVERDE</t>
+          <t>Santa Lucía Monteverde</t>
         </is>
       </c>
       <c r="C545">
@@ -7549,7 +7549,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>SANTA MARÍA APAZCO</t>
+          <t>Santa María Apazco</t>
         </is>
       </c>
       <c r="C546">
@@ -7562,7 +7562,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>SANTA MARÍA COLOTEPEC</t>
+          <t>Santa María Colotepec</t>
         </is>
       </c>
       <c r="C547">
@@ -7575,7 +7575,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUATULCO</t>
+          <t>Santa María Huatulco</t>
         </is>
       </c>
       <c r="C548">
@@ -7588,7 +7588,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUAZOLOTITLÁN</t>
+          <t>Santa María Huazolotitlán</t>
         </is>
       </c>
       <c r="C549">
@@ -7601,7 +7601,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>SANTA MARÍA IPALAPA</t>
+          <t>Santa María Ipalapa</t>
         </is>
       </c>
       <c r="C550">
@@ -7614,7 +7614,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C551">
@@ -7627,7 +7627,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JALAPA DEL MARQUÉS</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C552">
@@ -7640,7 +7640,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEMAXCALTEPEC</t>
+          <t>Santa María Temaxcaltepec</t>
         </is>
       </c>
       <c r="C553">
@@ -7653,7 +7653,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TLALIXTAC</t>
+          <t>Santa María Tlalixtac</t>
         </is>
       </c>
       <c r="C554">
@@ -7666,7 +7666,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C555">
@@ -7679,7 +7679,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>SANTA MARÍA YAVESÍA</t>
+          <t>Santa María Yavesía</t>
         </is>
       </c>
       <c r="C556">
@@ -7692,7 +7692,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>SANTA MARÍA YOSOYÚA</t>
+          <t>Santa María Yosoyúa</t>
         </is>
       </c>
       <c r="C557">
@@ -7705,7 +7705,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>SANTA MARÍA YUCUHITI</t>
+          <t>Santa María Yucuhiti</t>
         </is>
       </c>
       <c r="C558">
@@ -7718,7 +7718,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>SANTIAGO AMOLTEPEC</t>
+          <t>Santiago Amoltepec</t>
         </is>
       </c>
       <c r="C559">
@@ -7731,7 +7731,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>SANTIAGO ASTATA</t>
+          <t>Santiago Astata</t>
         </is>
       </c>
       <c r="C560">
@@ -7744,7 +7744,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>SANTIAGO CACALOXTEPEC</t>
+          <t>Santiago Cacaloxtepec</t>
         </is>
       </c>
       <c r="C561">
@@ -7757,7 +7757,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>SANTIAGO HUAJOLOTITLÁN</t>
+          <t>Santiago Huajolotitlán</t>
         </is>
       </c>
       <c r="C562">
@@ -7770,7 +7770,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTEPEC</t>
+          <t>Santiago Ixcuintepec</t>
         </is>
       </c>
       <c r="C563">
@@ -7783,7 +7783,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>SANTIAGO IXTAYUTLA</t>
+          <t>Santiago Ixtayutla</t>
         </is>
       </c>
       <c r="C564">
@@ -7796,7 +7796,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C565">
@@ -7809,7 +7809,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C566">
@@ -7822,7 +7822,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C567">
@@ -7835,7 +7835,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>SANTIAGO NILTEPEC</t>
+          <t>Santiago Niltepec</t>
         </is>
       </c>
       <c r="C568">
@@ -7848,7 +7848,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C569">
@@ -7861,7 +7861,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>SANTIAGO YAITEPEC</t>
+          <t>Santiago Yaitepec</t>
         </is>
       </c>
       <c r="C570">
@@ -7874,7 +7874,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>SANTIAGO YOSONDÚA</t>
+          <t>Santiago Yosondúa</t>
         </is>
       </c>
       <c r="C571">
@@ -7887,7 +7887,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C572">
@@ -7900,7 +7900,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO OZOLOTEPEC</t>
+          <t>Santo Domingo Ozolotepec</t>
         </is>
       </c>
       <c r="C573">
@@ -7913,7 +7913,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C574">
@@ -7926,7 +7926,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEOJOMULCO</t>
+          <t>Santo Domingo Teojomulco</t>
         </is>
       </c>
       <c r="C575">
@@ -7939,7 +7939,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ZANATEPEC</t>
+          <t>Santo Domingo Zanatepec</t>
         </is>
       </c>
       <c r="C576">
@@ -7952,7 +7952,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS OCOTEPEC</t>
+          <t>Santo Tomás Ocotepec</t>
         </is>
       </c>
       <c r="C577">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C578">
@@ -7978,7 +7978,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>TATALTEPEC DE VALDÉS</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C579">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C580">
@@ -8004,7 +8004,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>TOTONTEPEC VILLA DE MORELOS</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C581">
@@ -8017,7 +8017,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>VILLA DE TAMAZULÁPAM DEL PROGRESO</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C582">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C583">
@@ -8043,7 +8043,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C584">
@@ -8056,7 +8056,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>VILLA DE ZAACHILA</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C585">
@@ -8069,7 +8069,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>VILLA SOLA DE VEGA</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C586">
@@ -8082,7 +8082,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN PALMAS</t>
+          <t>Zapotitlán Palmas</t>
         </is>
       </c>
       <c r="C587">
@@ -8095,7 +8095,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C588">
@@ -8108,7 +8108,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C589">
@@ -8121,12 +8121,12 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>ACATENO</t>
+          <t>Acateno</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>AHUEHUETITLA</t>
+          <t>Ahuehuetitla</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>AMIXTLÁN</t>
+          <t>Amixtlán</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>AMOZOC</t>
+          <t>Amozoc</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>AQUIXTLA</t>
+          <t>Aquixtla</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>ATZITZIHUACÁN</t>
+          <t>Atzitzihuacán</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>ATZITZINTLA</t>
+          <t>Atzitzintla</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>Cañada Morelos</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>CHIGNAUTLA</t>
+          <t>Chignautla</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>CHILA</t>
+          <t>Chila</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>COXCATLÁN</t>
+          <t>Coxcatlán</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>CUYOACO</t>
+          <t>Cuyoaco</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>EPATLÁN</t>
+          <t>Epatlán</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>GENERAL FELIPE ÁNGELES</t>
+          <t>General Felipe Ángeles</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>HONEY</t>
+          <t>Honey</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
+          <t>Hueytamalco</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>IXTACAMAXTITLÁN</t>
+          <t>Ixtacamaxtitlán</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>JOLALPAN</t>
+          <t>Jolalpan</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>JOPALA</t>
+          <t>Jopala</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>LA MAGDALENA TLATLAUQUITEPEC</t>
+          <t>La Magdalena Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C620">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C622">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>NEALTICAN</t>
+          <t>Nealtican</t>
         </is>
       </c>
       <c r="C623">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>OCOYUCAN</t>
+          <t>Ocoyucan</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>PAHUATLÁN</t>
+          <t>Pahuatlán</t>
         </is>
       </c>
       <c r="C625">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C626">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>PIAXTLA</t>
+          <t>Piaxtla</t>
         </is>
       </c>
       <c r="C627">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C628">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C629">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>QUIMIXTLÁN</t>
+          <t>Quimixtlán</t>
         </is>
       </c>
       <c r="C630">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>RAFAEL LARA GRAJALES</t>
+          <t>Rafael Lara Grajales</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>SAN GREGORIO ATZOMPA</t>
+          <t>San Gregorio Atzompa</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>SAN MATÍAS TLALANCALECA</t>
+          <t>San Matías Tlalancaleca</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>SAN PABLO ANICANO</t>
+          <t>San Pablo Anicano</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>SANTA INÉS AHUATEMPAN</t>
+          <t>Santa Inés Ahuatempan</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>SANTA ISABEL CHOLULA</t>
+          <t>Santa Isabel Cholula</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS HUEYOTLIPAN</t>
+          <t>Santo Tomás Hueyotlipan</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>TEPANCO DE LÓPEZ</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>TETELA DE OCAMPO</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>TILAPA</t>
+          <t>Tilapa</t>
         </is>
       </c>
       <c r="C649">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>TLACHICHUCA</t>
+          <t>Tlachichuca</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>TLACUILOTEPEC</t>
+          <t>Tlacuilotepec</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>TLANEPANTLA</t>
+          <t>Tlanepantla</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>TLAOLA</t>
+          <t>Tlaola</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>TLAPACOYA</t>
+          <t>Tlapacoya</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>TLAPANALÁ</t>
+          <t>Tlapanalá</t>
         </is>
       </c>
       <c r="C657">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C658">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C659">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>TOCHIMILCO</t>
+          <t>Tochimilco</t>
         </is>
       </c>
       <c r="C660">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>TOCHTEPEC</t>
+          <t>Tochtepec</t>
         </is>
       </c>
       <c r="C661">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>TULCINGO</t>
+          <t>Tulcingo</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C663">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>YAONÁHUAC</t>
+          <t>Yaonáhuac</t>
         </is>
       </c>
       <c r="C666">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>YEHUALTEPEC</t>
+          <t>Yehualtepec</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>ZIHUATEUTLA</t>
+          <t>Zihuateutla</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>ZINACATEPEC</t>
+          <t>Zinacatepec</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>ZONGOZOTLA</t>
+          <t>Zongozotla</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>ZOQUIAPAN</t>
+          <t>Zoquiapan</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>ZOQUITLÁN</t>
+          <t>Zoquitlán</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,12 +9257,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C677">
@@ -9275,7 +9275,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>ARROYO SECO</t>
+          <t>Arroyo Seco</t>
         </is>
       </c>
       <c r="C678">
@@ -9288,7 +9288,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C679">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>COLÓN</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="C680">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>CORREGIDORA</t>
+          <t>Corregidora</t>
         </is>
       </c>
       <c r="C681">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C682">
@@ -9340,7 +9340,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>HUIMILPAN</t>
+          <t>Huimilpan</t>
         </is>
       </c>
       <c r="C683">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C684">
@@ -9366,7 +9366,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>LANDA DE MATAMOROS</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C685">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>PEDRO ESCOBEDO</t>
+          <t>Pedro Escobedo</t>
         </is>
       </c>
       <c r="C686">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C687">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C688">
@@ -9418,7 +9418,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>SAN JOAQUÍN</t>
+          <t>San Joaquín</t>
         </is>
       </c>
       <c r="C689">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C690">
@@ -9444,7 +9444,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>TEQUISQUIAPAN</t>
+          <t>Tequisquiapan</t>
         </is>
       </c>
       <c r="C691">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>TOLIMÁN</t>
+          <t>Tolimán</t>
         </is>
       </c>
       <c r="C692">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C693">
@@ -9483,12 +9483,12 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C694">
@@ -9501,7 +9501,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C695">
@@ -9514,7 +9514,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C696">
@@ -9527,12 +9527,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>ALAQUINES</t>
+          <t>Alaquines</t>
         </is>
       </c>
       <c r="C697">
@@ -9545,7 +9545,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>AQUISMÓN</t>
+          <t>Aquismón</t>
         </is>
       </c>
       <c r="C698">
@@ -9558,7 +9558,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>AXTLA DE TERRAZAS</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C699">
@@ -9571,7 +9571,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>CERRITOS</t>
+          <t>Cerritos</t>
         </is>
       </c>
       <c r="C700">
@@ -9584,7 +9584,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>CHARCAS</t>
+          <t>Charcas</t>
         </is>
       </c>
       <c r="C701">
@@ -9597,7 +9597,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C702">
@@ -9610,7 +9610,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>CIUDAD FERNÁNDEZ</t>
+          <t>Ciudad Fernández</t>
         </is>
       </c>
       <c r="C703">
@@ -9623,7 +9623,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C704">
@@ -9636,7 +9636,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C705">
@@ -9649,7 +9649,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>EL NARANJO</t>
+          <t>El Naranjo</t>
         </is>
       </c>
       <c r="C706">
@@ -9662,7 +9662,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>GUADALCÁZAR</t>
+          <t>Guadalcázar</t>
         </is>
       </c>
       <c r="C707">
@@ -9675,7 +9675,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN</t>
+          <t>Huehuetlán</t>
         </is>
       </c>
       <c r="C708">
@@ -9688,7 +9688,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>LAGUNILLAS</t>
+          <t>Lagunillas</t>
         </is>
       </c>
       <c r="C709">
@@ -9701,7 +9701,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C710">
@@ -9714,7 +9714,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>MOCTEZUMA</t>
+          <t>Moctezuma</t>
         </is>
       </c>
       <c r="C711">
@@ -9727,7 +9727,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>RAYÓN</t>
+          <t>Rayón</t>
         </is>
       </c>
       <c r="C712">
@@ -9740,7 +9740,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C713">
@@ -9753,7 +9753,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>SAN CIRO DE ACOSTA</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C714">
@@ -9766,7 +9766,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C715">
@@ -9779,7 +9779,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>SAN MARTÍN CHALCHICUAUTLA</t>
+          <t>San Martín Chalchicuautla</t>
         </is>
       </c>
       <c r="C716">
@@ -9792,7 +9792,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>SANTA CATARINA</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="C717">
@@ -9805,7 +9805,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C718">
@@ -9818,7 +9818,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="C719">
@@ -9831,7 +9831,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>TAMASOPO</t>
+          <t>Tamasopo</t>
         </is>
       </c>
       <c r="C720">
@@ -9844,7 +9844,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C721">
@@ -9857,7 +9857,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>TAMUÍN</t>
+          <t>Tamuín</t>
         </is>
       </c>
       <c r="C722">
@@ -9870,7 +9870,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>TIERRA NUEVA</t>
+          <t>Tierra Nueva</t>
         </is>
       </c>
       <c r="C723">
@@ -9883,7 +9883,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>VILLA DE GUADALUPE</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C724">
@@ -9896,7 +9896,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>VILLA DE LA PAZ</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C725">
@@ -9909,7 +9909,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C726">
@@ -9922,7 +9922,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C727">
@@ -9935,7 +9935,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C728">
@@ -9948,7 +9948,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C729">
@@ -9961,12 +9961,12 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C730">
@@ -9979,7 +9979,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>BADIRAGUATO</t>
+          <t>Badiraguato</t>
         </is>
       </c>
       <c r="C731">
@@ -9992,7 +9992,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>ELOTA</t>
+          <t>Elota</t>
         </is>
       </c>
       <c r="C732">
@@ -10005,7 +10005,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C733">
@@ -10018,7 +10018,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C734">
@@ -10031,7 +10031,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C735">
@@ -10044,7 +10044,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>San Ignacio</t>
         </is>
       </c>
       <c r="C736">
@@ -10057,7 +10057,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C737">
@@ -10070,7 +10070,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C738">
@@ -10083,12 +10083,12 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>ACONCHI</t>
+          <t>Aconchi</t>
         </is>
       </c>
       <c r="C739">
@@ -10101,7 +10101,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>AGUA PRIETA</t>
+          <t>Agua Prieta</t>
         </is>
       </c>
       <c r="C740">
@@ -10114,7 +10114,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C741">
@@ -10127,7 +10127,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C742">
@@ -10140,7 +10140,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>NACOZARI DE GARCÍA</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C743">
@@ -10153,7 +10153,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>PUERTO PEÑASCO</t>
+          <t>Puerto Peñasco</t>
         </is>
       </c>
       <c r="C744">
@@ -10166,7 +10166,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C745">
@@ -10179,12 +10179,12 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C746">
@@ -10197,7 +10197,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C747">
@@ -10210,7 +10210,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C748">
@@ -10223,7 +10223,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>CUNDUACÁN</t>
+          <t>Cunduacán</t>
         </is>
       </c>
       <c r="C749">
@@ -10236,7 +10236,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C750">
@@ -10249,7 +10249,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C751">
@@ -10262,7 +10262,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C752">
@@ -10275,7 +10275,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>JALPA DE MÉNDEZ</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C753">
@@ -10288,7 +10288,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>MACUSPANA</t>
+          <t>Macuspana</t>
         </is>
       </c>
       <c r="C754">
@@ -10301,7 +10301,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>PARAÍSO</t>
+          <t>Paraíso</t>
         </is>
       </c>
       <c r="C755">
@@ -10314,7 +10314,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>TACOTALPA</t>
+          <t>Tacotalpa</t>
         </is>
       </c>
       <c r="C756">
@@ -10327,7 +10327,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>TEAPA</t>
+          <t>Teapa</t>
         </is>
       </c>
       <c r="C757">
@@ -10340,7 +10340,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C758">
@@ -10353,7 +10353,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C759">
@@ -10366,12 +10366,12 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C760">
@@ -10384,7 +10384,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>BUSTAMANTE</t>
+          <t>Bustamante</t>
         </is>
       </c>
       <c r="C761">
@@ -10397,7 +10397,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C762">
@@ -10410,7 +10410,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C763">
@@ -10423,7 +10423,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C764">
@@ -10436,7 +10436,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>GONZÁLEZ</t>
+          <t>González</t>
         </is>
       </c>
       <c r="C765">
@@ -10449,7 +10449,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>GÜÉMEZ</t>
+          <t>Güémez</t>
         </is>
       </c>
       <c r="C766">
@@ -10462,7 +10462,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C767">
@@ -10475,7 +10475,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C768">
@@ -10488,7 +10488,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>NUEVO MORELOS</t>
+          <t>Nuevo Morelos</t>
         </is>
       </c>
       <c r="C769">
@@ -10501,7 +10501,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C770">
@@ -10514,7 +10514,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C771">
@@ -10527,7 +10527,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>SOTO LA MARINA</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C772">
@@ -10540,7 +10540,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C773">
@@ -10553,7 +10553,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>TULA</t>
+          <t>Tula</t>
         </is>
       </c>
       <c r="C774">
@@ -10566,7 +10566,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C775">
@@ -10579,7 +10579,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C776">
@@ -10592,12 +10592,12 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C777">
@@ -10610,7 +10610,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>ATLANGATEPEC</t>
+          <t>Atlangatepec</t>
         </is>
       </c>
       <c r="C778">
@@ -10623,7 +10623,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C779">
@@ -10636,7 +10636,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C780">
@@ -10649,7 +10649,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C781">
@@ -10662,7 +10662,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>ESPAÑITA</t>
+          <t>Españita</t>
         </is>
       </c>
       <c r="C782">
@@ -10675,7 +10675,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C783">
@@ -10688,7 +10688,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>NANACAMILPA DE MARIANO ARISTA</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C784">
@@ -10701,7 +10701,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>PANOTLA</t>
+          <t>Panotla</t>
         </is>
       </c>
       <c r="C785">
@@ -10714,7 +10714,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C786">
@@ -10727,7 +10727,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>TEPEYANCO</t>
+          <t>Tepeyanco</t>
         </is>
       </c>
       <c r="C787">
@@ -10740,7 +10740,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>TERRENATE</t>
+          <t>Terrenate</t>
         </is>
       </c>
       <c r="C788">
@@ -10753,7 +10753,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C789">
@@ -10766,7 +10766,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C790">
@@ -10779,7 +10779,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>TZOMPANTEPEC</t>
+          <t>Tzompantepec</t>
         </is>
       </c>
       <c r="C791">
@@ -10792,7 +10792,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>XALOZTOC</t>
+          <t>Xaloztoc</t>
         </is>
       </c>
       <c r="C792">
@@ -10805,7 +10805,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>XALTOCAN</t>
+          <t>Xaltocan</t>
         </is>
       </c>
       <c r="C793">
@@ -10818,7 +10818,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>ZACATELCO</t>
+          <t>Zacatelco</t>
         </is>
       </c>
       <c r="C794">
@@ -10831,7 +10831,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C795">
@@ -10844,12 +10844,12 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C796">
@@ -10862,7 +10862,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C797">
@@ -10875,7 +10875,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>AGUA DULCE</t>
+          <t>Agua Dulce</t>
         </is>
       </c>
       <c r="C798">
@@ -10888,7 +10888,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C799">
@@ -10901,7 +10901,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C800">
@@ -10914,7 +10914,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>AMATITLÁN</t>
+          <t>Amatitlán</t>
         </is>
       </c>
       <c r="C801">
@@ -10927,7 +10927,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>AMATLÁN DE LOS REYES</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C802">
@@ -10940,7 +10940,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>ANGEL R. CABADA</t>
+          <t>Angel R. Cabada</t>
         </is>
       </c>
       <c r="C803">
@@ -10953,7 +10953,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C804">
@@ -10966,7 +10966,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C805">
@@ -10979,7 +10979,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C806">
@@ -10992,7 +10992,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C807">
@@ -11005,7 +11005,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>AYAHUALULCO</t>
+          <t>Ayahualulco</t>
         </is>
       </c>
       <c r="C808">
@@ -11018,7 +11018,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C809">
@@ -11031,7 +11031,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C810">
@@ -11044,7 +11044,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>CARRILLO PUERTO</t>
+          <t>Carrillo Puerto</t>
         </is>
       </c>
       <c r="C811">
@@ -11057,7 +11057,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C812">
@@ -11070,7 +11070,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>CAZONES DE HERRERA</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C813">
@@ -11083,7 +11083,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>CHACALTIANGUIS</t>
+          <t>Chacaltianguis</t>
         </is>
       </c>
       <c r="C814">
@@ -11096,7 +11096,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>CHICONQUIACO</t>
+          <t>Chiconquiaco</t>
         </is>
       </c>
       <c r="C815">
@@ -11109,7 +11109,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>CHICONTEPEC</t>
+          <t>Chicontepec</t>
         </is>
       </c>
       <c r="C816">
@@ -11122,7 +11122,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>CHUMATLÁN</t>
+          <t>Chumatlán</t>
         </is>
       </c>
       <c r="C817">
@@ -11135,7 +11135,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>COACOATZINTLA</t>
+          <t>Coacoatzintla</t>
         </is>
       </c>
       <c r="C818">
@@ -11148,7 +11148,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C819">
@@ -11161,7 +11161,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>COATZINTLA</t>
+          <t>Coatzintla</t>
         </is>
       </c>
       <c r="C820">
@@ -11174,7 +11174,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>COETZALA</t>
+          <t>Coetzala</t>
         </is>
       </c>
       <c r="C821">
@@ -11187,7 +11187,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C822">
@@ -11200,7 +11200,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>COSAUTLÁN DE CARVAJAL</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C823">
@@ -11213,7 +11213,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C824">
@@ -11226,7 +11226,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>COSOLEACAQUE</t>
+          <t>Cosoleacaque</t>
         </is>
       </c>
       <c r="C825">
@@ -11239,7 +11239,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C826">
@@ -11252,7 +11252,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C827">
@@ -11265,7 +11265,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>CUICHAPA</t>
+          <t>Cuichapa</t>
         </is>
       </c>
       <c r="C828">
@@ -11278,7 +11278,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>CUITLÁHUAC</t>
+          <t>Cuitláhuac</t>
         </is>
       </c>
       <c r="C829">
@@ -11291,7 +11291,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C830">
@@ -11304,7 +11304,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>EL HIGO</t>
+          <t>El Higo</t>
         </is>
       </c>
       <c r="C831">
@@ -11317,7 +11317,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C832">
@@ -11330,7 +11330,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>FORTÍN</t>
+          <t>Fortín</t>
         </is>
       </c>
       <c r="C833">
@@ -11343,7 +11343,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>GUTIÉRREZ ZAMORA</t>
+          <t>Gutiérrez Zamora</t>
         </is>
       </c>
       <c r="C834">
@@ -11356,7 +11356,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C835">
@@ -11369,7 +11369,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C836">
@@ -11382,7 +11382,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C837">
@@ -11395,7 +11395,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C838">
@@ -11408,7 +11408,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C839">
@@ -11421,7 +11421,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C840">
@@ -11434,7 +11434,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C841">
@@ -11447,7 +11447,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DEL CAFÉ</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C842">
@@ -11460,7 +11460,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DEL SURESTE</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C843">
@@ -11473,7 +11473,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>IXTACZOQUITLÁN</t>
+          <t>Ixtaczoquitlán</t>
         </is>
       </c>
       <c r="C844">
@@ -11486,7 +11486,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>JALACINGO</t>
+          <t>Jalacingo</t>
         </is>
       </c>
       <c r="C845">
@@ -11499,7 +11499,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>JAMAPA</t>
+          <t>Jamapa</t>
         </is>
       </c>
       <c r="C846">
@@ -11512,7 +11512,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C847">
@@ -11525,7 +11525,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C848">
@@ -11538,7 +11538,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C849">
@@ -11551,7 +11551,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C850">
@@ -11564,7 +11564,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C851">
@@ -11577,7 +11577,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>JÁLTIPAN</t>
+          <t>Jáltipan</t>
         </is>
       </c>
       <c r="C852">
@@ -11590,7 +11590,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C853">
@@ -11603,7 +11603,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>La Perla</t>
         </is>
       </c>
       <c r="C854">
@@ -11616,7 +11616,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C855">
@@ -11629,7 +11629,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C856">
@@ -11642,7 +11642,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>MECATLÁN</t>
+          <t>Mecatlán</t>
         </is>
       </c>
       <c r="C857">
@@ -11655,7 +11655,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>MECAYAPAN</t>
+          <t>Mecayapan</t>
         </is>
       </c>
       <c r="C858">
@@ -11668,7 +11668,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>MEDELLÍN</t>
+          <t>Medellín</t>
         </is>
       </c>
       <c r="C859">
@@ -11681,7 +11681,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C860">
@@ -11694,7 +11694,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C861">
@@ -11707,7 +11707,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>MOLOACÁN</t>
+          <t>Moloacán</t>
         </is>
       </c>
       <c r="C862">
@@ -11720,7 +11720,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>NANCHITAL DE LÁZARO CÁRDENAS DEL RÍO</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C863">
@@ -11733,7 +11733,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>NAUTLA</t>
+          <t>Nautla</t>
         </is>
       </c>
       <c r="C864">
@@ -11746,7 +11746,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C865">
@@ -11759,7 +11759,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C866">
@@ -11772,7 +11772,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>OLUTA</t>
+          <t>Oluta</t>
         </is>
       </c>
       <c r="C867">
@@ -11785,7 +11785,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C868">
@@ -11798,7 +11798,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C869">
@@ -11811,7 +11811,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>OTATITLÁN</t>
+          <t>Otatitlán</t>
         </is>
       </c>
       <c r="C870">
@@ -11824,7 +11824,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C871">
@@ -11837,7 +11837,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C872">
@@ -11850,7 +11850,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>PASO DEL MACHO</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C873">
@@ -11863,7 +11863,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>PEROTE</t>
+          <t>Perote</t>
         </is>
       </c>
       <c r="C874">
@@ -11876,7 +11876,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>PLATÓN SÁNCHEZ</t>
+          <t>Platón Sánchez</t>
         </is>
       </c>
       <c r="C875">
@@ -11889,7 +11889,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C876">
@@ -11902,7 +11902,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C877">
@@ -11915,7 +11915,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C878">
@@ -11928,7 +11928,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>RÍO BLANCO</t>
+          <t>Río Blanco</t>
         </is>
       </c>
       <c r="C879">
@@ -11941,7 +11941,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C880">
@@ -11954,7 +11954,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C881">
@@ -11967,7 +11967,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C882">
@@ -11980,7 +11980,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>SAYULA DE ALEMÁN</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C883">
@@ -11993,7 +11993,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>SOCONUSCO</t>
+          <t>Soconusco</t>
         </is>
       </c>
       <c r="C884">
@@ -12006,7 +12006,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C885">
@@ -12019,7 +12019,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>TAMIAHUA</t>
+          <t>Tamiahua</t>
         </is>
       </c>
       <c r="C886">
@@ -12032,7 +12032,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C887">
@@ -12045,7 +12045,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>TATAHUICAPAN DE JUÁREZ</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C888">
@@ -12058,7 +12058,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>TATATILA</t>
+          <t>Tatatila</t>
         </is>
       </c>
       <c r="C889">
@@ -12071,7 +12071,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>TECOLUTLA</t>
+          <t>Tecolutla</t>
         </is>
       </c>
       <c r="C890">
@@ -12084,7 +12084,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>TEHUIPANGO</t>
+          <t>Tehuipango</t>
         </is>
       </c>
       <c r="C891">
@@ -12097,7 +12097,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>TEMPOAL</t>
+          <t>Tempoal</t>
         </is>
       </c>
       <c r="C892">
@@ -12110,7 +12110,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>TENAMPA</t>
+          <t>Tenampa</t>
         </is>
       </c>
       <c r="C893">
@@ -12123,7 +12123,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>TENOCHTITLÁN</t>
+          <t>Tenochtitlán</t>
         </is>
       </c>
       <c r="C894">
@@ -12136,7 +12136,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>TEPATLAXCO</t>
+          <t>Tepatlaxco</t>
         </is>
       </c>
       <c r="C895">
@@ -12149,7 +12149,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C896">
@@ -12162,7 +12162,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>TEXISTEPEC</t>
+          <t>Texistepec</t>
         </is>
       </c>
       <c r="C897">
@@ -12175,7 +12175,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C898">
@@ -12188,7 +12188,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C899">
@@ -12201,7 +12201,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>TLACHICHILCO</t>
+          <t>Tlachichilco</t>
         </is>
       </c>
       <c r="C900">
@@ -12214,7 +12214,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C901">
@@ -12227,7 +12227,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>TLALNELHUAYOCAN</t>
+          <t>Tlalnelhuayocan</t>
         </is>
       </c>
       <c r="C902">
@@ -12240,7 +12240,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C903">
@@ -12253,7 +12253,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>TLAQUILPA</t>
+          <t>Tlaquilpa</t>
         </is>
       </c>
       <c r="C904">
@@ -12266,7 +12266,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>TLILAPAN</t>
+          <t>Tlilapan</t>
         </is>
       </c>
       <c r="C905">
@@ -12279,7 +12279,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C906">
@@ -12292,7 +12292,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C907">
@@ -12305,7 +12305,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C908">
@@ -12318,7 +12318,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>VEGA DE ALATORRE</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C909">
@@ -12331,7 +12331,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C910">
@@ -12344,7 +12344,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C911">
@@ -12357,7 +12357,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>XOXOCOTLA</t>
+          <t>Xoxocotla</t>
         </is>
       </c>
       <c r="C912">
@@ -12370,7 +12370,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C913">
@@ -12383,7 +12383,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>ZENTLA</t>
+          <t>Zentla</t>
         </is>
       </c>
       <c r="C914">
@@ -12396,7 +12396,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C915">
@@ -12409,7 +12409,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>ÁLAMO TEMAPACHE</t>
+          <t>Álamo Temapache</t>
         </is>
       </c>
       <c r="C916">
@@ -12422,7 +12422,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C917">
@@ -12435,12 +12435,12 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C918">
@@ -12453,7 +12453,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C919">
@@ -12466,12 +12466,12 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C920">
@@ -12484,7 +12484,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
+          <t>Chalchihuites</t>
         </is>
       </c>
       <c r="C921">
@@ -12497,7 +12497,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DEL ORO</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C922">
@@ -12510,7 +12510,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>EL SALVADOR</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C923">
@@ -12523,7 +12523,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C924">
@@ -12536,7 +12536,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C925">
@@ -12549,7 +12549,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C926">
@@ -12562,7 +12562,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C927">
@@ -12575,7 +12575,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C928">
@@ -12588,7 +12588,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>JIMÉNEZ DEL TEUL</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C929">
@@ -12601,7 +12601,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>JUAN ALDAMA</t>
+          <t>Juan Aldama</t>
         </is>
       </c>
       <c r="C930">
@@ -12614,7 +12614,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C931">
@@ -12627,7 +12627,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>MAZAPIL</t>
+          <t>Mazapil</t>
         </is>
       </c>
       <c r="C932">
@@ -12640,7 +12640,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>MEZQUITAL DEL ORO</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C933">
@@ -12653,7 +12653,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>MIGUEL AUZA</t>
+          <t>Miguel Auza</t>
         </is>
       </c>
       <c r="C934">
@@ -12666,7 +12666,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>NORIA DE ÁNGELES</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C935">
@@ -12679,7 +12679,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C936">
@@ -12692,7 +12692,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C937">
@@ -12705,7 +12705,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C938">
@@ -12718,7 +12718,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C939">
@@ -12731,7 +12731,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>TEPECHITLÁN</t>
+          <t>Tepechitlán</t>
         </is>
       </c>
       <c r="C940">
@@ -12744,7 +12744,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C941">
@@ -12757,7 +12757,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C942">
@@ -12770,7 +12770,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C943">
@@ -12783,7 +12783,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C944">
@@ -12796,7 +12796,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C945">
@@ -12809,7 +12809,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C946">
@@ -12822,7 +12822,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C947">
@@ -12830,41 +12830,6 @@
       </c>
       <c r="D947">
         <v>1</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>
